--- a/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AC1AF-53CC-4C29-8EF7-B5E7B2FC8818}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF5422-B754-4CD6-8D72-4EBA4FF30A92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="38700" yWindow="2940" windowWidth="14400" windowHeight="8235" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_Hlk20929868" localSheetId="10">'7SGR'!$A$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1ReduceVMT'!$A$1:$H$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3Multimodal'!$A$1:$H$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'5Freight'!$A$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'5Freight'!$A$1:$H$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'8SocioEconEquity'!$A$1:$H$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1ReduceVMT'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2ReduceCongestion'!$1:$2</definedName>
@@ -756,9 +756,6 @@
   </si>
   <si>
     <t>Economic Prosperity Indicator 1: Access to jobs in all sectors by mode</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 2: Total new jobs added within 0.5mi of project area by 2040</t>
   </si>
   <si>
     <t>Within 0.25mi of project</t>
@@ -997,9 +994,6 @@
   </si>
   <si>
     <t>Economic Prosperity Indicator 6: Change in Ag acreage share within 0.5mi of project location</t>
-  </si>
-  <si>
-    <t>Freight Performance Indicator 3: Change in share of industrial jobs within 0.5mi of project location</t>
   </si>
   <si>
     <t>Using This Report</t>
@@ -1041,6 +1035,13 @@
       <t xml:space="preserve"> "how much growth will this road project cause?".
 Similarly, for performance outcomes like safety or congestion reduction, the report tells the reviewer if there currently is a problem with congestion or safety (e.g., high collision rate), but it does not say whether the proposed project will improve the issue (e.g., it won't say whether widening a congested segment will reduce congestion on the segment, nor will it say whether a proposed safety project will address the root cause of the safety issue).</t>
     </r>
+  </si>
+  <si>
+    <t>State of good repair indicator 3: Complete Streets Index</t>
+  </si>
+  <si>
+    <t>The complete streets index (CSI) is based on the densities of students, transit service, jobs, and dwelling units within a half mile of the project location and the project location’s posted speed limit. A higher CSI means higher densities of these input factors, meaning the street is more likely have many users of all modes (bike, walk, transit, drive) and thus derive greater benefit from complete streets treatments that make the project location better serve all types of road users. As posted speed limit increases beyond 40mph, the CSI will fall with all else being equal since fast vehicle speeds are less conducive to the street serving all users.
+If the complete streets score is -1, it means the project type selected is not eligible to be evaluated based on complete streets potential (e.g. freeway projects are not eligible for complete streets evaluation).</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1468,12 +1469,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1784,7 +1779,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1893,7 +1888,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1956,12 +1950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1970,11 +1958,30 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1993,15 +2000,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2953,361 +2951,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Share of Industrial Jobs</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$D$59:$E$59</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7.072357263990954E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.853240442342649E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E36C-408F-93E4-698F12DD9E84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1814738704"/>
-        <c:axId val="1818661248"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1814738704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818661248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1818661248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1814738704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Fatal and Bike-Ped Collisions</a:t>
             </a:r>
           </a:p>
@@ -3900,7 +3543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4321,7 +3964,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4748,7 +4391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5183,7 +4826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5653,7 +5296,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total Jobs and Dwelling Units within 0.5mi of project</a:t>
+              <a:t>Jobs and Dwelling Units per Acre within 0.5mi of project</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10994,46 +10637,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14373,509 +13976,6 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19799,47 +18899,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC49722F-70FD-4B30-9971-4EC1689D73CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -19876,7 +18935,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20332,8 +19391,8 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20379,10 +19438,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -20419,7 +19478,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8">
         <v>1.41</v>
@@ -21032,7 +20091,7 @@
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="85">
+      <c r="B68" s="80">
         <v>1.3624389724527719</v>
       </c>
     </row>
@@ -21040,7 +20099,7 @@
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="85">
+      <c r="B69" s="80">
         <v>1.475654647382425</v>
       </c>
     </row>
@@ -21553,7 +20612,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -21563,41 +20622,41 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
+    <row r="1" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="69" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
+    <row r="2" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="69" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -21608,17 +20667,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -21631,13 +20690,13 @@
     </row>
     <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21656,7 +20715,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -21672,10 +20731,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A06C26-04B9-49D2-98B1-15755B05F762}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21684,29 +20743,29 @@
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
+    <row r="1" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="69" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
+    <row r="2" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="69" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -21717,7 +20776,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -21726,7 +20785,33 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="91">
+        <f>VLOOKUP("Complete street score",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:H16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21737,8 +20822,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21751,29 +20836,29 @@
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
+    <row r="1" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="69" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
+    <row r="2" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="69" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21784,18 +20869,18 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21814,12 +20899,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -21857,22 +20942,22 @@
       <c r="E21" s="51"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>264</v>
+      <c r="A37" s="68" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
+      <c r="A86" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
     </row>
     <row r="90" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -21894,9 +20979,9 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22582,7 +21667,7 @@
         <v>1.0947187607200981</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -22616,14 +21701,14 @@
         <f>VLOOKUP($A18,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="63">
+      <c r="P18" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q18" s="62">
         <f t="array" ref="Q18">MAX(IF(ISNUMBER(SEARCH("calc_len",import!$A:$A)),import!$B:$B))</f>
         <v>7460.2525126827086</v>
       </c>
-      <c r="R18" s="64"/>
+      <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -22662,10 +21747,10 @@
       <c r="J19" t="s">
         <v>171</v>
       </c>
-      <c r="P19" s="62" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q19" s="66">
+      <c r="P19" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q19" s="65">
         <f>(Q18/5280)/D118</f>
         <v>1.0020756115251865</v>
       </c>
@@ -24144,7 +23229,7 @@
         <v>33</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
         <v>211</v>
@@ -24214,7 +23299,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
         <v>211</v>
@@ -24314,37 +23399,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="81" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="81" t="s">
+    <row r="65" spans="1:9" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="83">
+      <c r="D65" s="86">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1175.845221386116</v>
       </c>
-      <c r="E65" s="83">
+      <c r="E65" s="86">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="83">
+      <c r="F65" s="86">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="83">
+      <c r="G65" s="86">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="81">
+      <c r="H65" s="88">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="81">
+      <c r="I65" s="88">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -24839,72 +23924,72 @@
         <v>0.93085349575304976</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="81" t="s">
+    <row r="80" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="82" t="s">
+      <c r="B80" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="81" t="s">
+      <c r="C80" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="83">
+      <c r="D80" s="86">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1916</v>
       </c>
-      <c r="E80" s="83">
+      <c r="E80" s="86">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2072.611115859987</v>
       </c>
-      <c r="F80" s="81">
+      <c r="F80" s="88">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G80" s="81">
+      <c r="G80" s="88">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="81">
+      <c r="H80" s="88">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I80" s="81">
+      <c r="I80" s="88">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="81" t="s">
+    <row r="81" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="82" t="s">
+      <c r="B81" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="81" t="s">
+      <c r="C81" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="D81" s="83">
+      <c r="D81" s="86">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1769</v>
       </c>
-      <c r="E81" s="83">
+      <c r="E81" s="86">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2761.6599999999989</v>
       </c>
-      <c r="F81" s="81">
+      <c r="F81" s="88">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="81">
+      <c r="G81" s="88">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="81">
+      <c r="H81" s="88">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="81">
+      <c r="I81" s="88">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -24944,72 +24029,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83" t="s">
+    <row r="83" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="82" t="s">
+      <c r="B83" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="C83" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="84">
+      <c r="D83" s="89">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.3624389724527719</v>
       </c>
-      <c r="E83" s="84">
+      <c r="E83" s="89">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="84">
+      <c r="F83" s="89">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="84">
+      <c r="G83" s="89">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H83" s="84">
+      <c r="H83" s="89">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I83" s="84">
+      <c r="I83" s="89">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="81" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="83" t="s">
+    <row r="84" spans="1:16" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="82" t="s">
+      <c r="B84" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="81" t="s">
+      <c r="C84" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="D84" s="84">
+      <c r="D84" s="89">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.475654647382425</v>
       </c>
-      <c r="E84" s="84">
+      <c r="E84" s="89">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F84" s="84">
+      <c r="F84" s="89">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G84" s="84">
+      <c r="G84" s="89">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H84" s="84">
+      <c r="H84" s="89">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I84" s="84">
+      <c r="I84" s="89">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -25404,7 +24489,7 @@
         <v>71</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C96" t="s">
         <v>216</v>
@@ -25434,7 +24519,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P96" s="28"/>
     </row>
@@ -25443,7 +24528,7 @@
         <v>72</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C97" t="s">
         <v>216</v>
@@ -25473,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P97" s="28"/>
     </row>
@@ -25482,7 +24567,7 @@
         <v>73</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C98" t="s">
         <v>216</v>
@@ -25512,7 +24597,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P98" s="28"/>
     </row>
@@ -25521,7 +24606,7 @@
         <v>74</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s">
         <v>216</v>
@@ -25551,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P99" s="28"/>
     </row>
@@ -25560,7 +24645,7 @@
         <v>75</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100" t="s">
         <v>216</v>
@@ -25590,7 +24675,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P100" s="28"/>
     </row>
@@ -25599,7 +24684,7 @@
         <v>76</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s">
         <v>216</v>
@@ -25629,7 +24714,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P101" s="28"/>
     </row>
@@ -25638,7 +24723,7 @@
         <v>77</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C102" t="s">
         <v>216</v>
@@ -25668,7 +24753,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P102" s="28"/>
     </row>
@@ -25677,7 +24762,7 @@
         <v>78</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C103" t="s">
         <v>216</v>
@@ -25707,7 +24792,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P103" s="28"/>
     </row>
@@ -25716,7 +24801,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" t="s">
         <v>216</v>
@@ -25746,7 +24831,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P104" s="28"/>
     </row>
@@ -25755,7 +24840,7 @@
         <v>80</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
         <v>216</v>
@@ -25785,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P105" s="28"/>
     </row>
@@ -25794,7 +24879,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C106" t="s">
         <v>216</v>
@@ -25824,7 +24909,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P106" s="28"/>
     </row>
@@ -25833,7 +24918,7 @@
         <v>82</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s">
         <v>216</v>
@@ -25863,7 +24948,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P107" s="28"/>
     </row>
@@ -25872,7 +24957,7 @@
         <v>83</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C108" t="s">
         <v>216</v>
@@ -25902,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P108" s="28"/>
     </row>
@@ -25911,7 +24996,7 @@
         <v>84</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C109" t="s">
         <v>216</v>
@@ -25941,7 +25026,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P109" s="28"/>
     </row>
@@ -25950,7 +25035,7 @@
         <v>85</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
         <v>216</v>
@@ -25980,7 +25065,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P110" s="28"/>
     </row>
@@ -25989,7 +25074,7 @@
         <v>86</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -26019,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P111" s="28"/>
     </row>
@@ -26060,10 +25145,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C113" t="s">
         <v>204</v>
@@ -26235,10 +25320,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>257</v>
       </c>
       <c r="C118" t="s">
         <v>204</v>
@@ -26330,40 +25415,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="str">
+      <c r="A2" s="93" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -26376,84 +25461,84 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="31" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
+      <c r="A32" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="31" t="str">
         <f>VLOOKUP(A32,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>anyplace</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="31" t="str">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="32">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="32">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="32">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
+      <c r="A37" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="48">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
@@ -26464,12 +25549,12 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="31" t="str">
         <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -26524,8 +25609,8 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>286</v>
+      <c r="A43" s="56" t="s">
+        <v>285</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -26537,9 +25622,9 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
+      <c r="A44" s="57">
         <f ca="1">NOW()</f>
-        <v>43861.595133680552</v>
+        <v>43866.38463310185</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -26584,7 +25669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E9A7A-76C4-4F5E-A5E5-551C242D3604}">
   <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
@@ -26598,92 +25683,92 @@
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+    <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
-        <v>306</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
+      <c r="A29" s="82"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="48"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
@@ -26741,7 +25826,7 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -26752,7 +25837,7 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -26791,8 +25876,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:H42"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26801,13 +25886,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="59" t="str">
+      <c r="H1" s="58" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="59" t="str">
+      <c r="H2" s="58" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
@@ -26819,54 +25904,54 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
     </row>
     <row r="42" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
+      <c r="A42" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26883,7 +25968,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -26893,20 +25978,20 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
+    <row r="1" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="69" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
+    <row r="2" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="69" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -26915,7 +26000,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -26943,152 +26028,152 @@
       <c r="A13" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="B22" s="77" t="str">
+      <c r="A22" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="76" t="str">
         <f>lookup_helper!Q7</f>
         <v>EB</v>
       </c>
-      <c r="C22" s="77" t="str">
+      <c r="C22" s="76" t="str">
         <f>lookup_helper!R7</f>
         <v>WB</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="86">
+      <c r="A23" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="81">
         <f>IFERROR(lookup_helper!Q9/lookup_helper!Q8,0)</f>
         <v>0.62906584321456371</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="81">
         <f>IFERROR(lookup_helper!R9/lookup_helper!R8,0)</f>
         <v>0.81902208942477273</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88">
+      <c r="A26" s="83">
         <f>VLOOKUP(A25,lookup_helper!$B:$D,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
+      <c r="A29" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
+      <c r="A62" s="96" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -27110,7 +26195,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
@@ -27121,20 +26206,20 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
+    <row r="1" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="69" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
+    <row r="2" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="69" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -27142,28 +26227,28 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27186,34 +26271,34 @@
       <c r="C10" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
+      <c r="A14" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27260,13 +26345,13 @@
     </row>
     <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="C51" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27285,7 +26370,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -27312,8 +26397,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView view="pageLayout" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27321,20 +26406,20 @@
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
+    <row r="1" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="69" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
+    <row r="2" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="69" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -27342,33 +26427,33 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="A5" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -27400,65 +26485,60 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54">
-        <f>lookup_helper!E81-lookup_helper!D81</f>
-        <v>992.65999999999894</v>
-      </c>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="67"/>
+      <c r="A62" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="66"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="55">
+      <c r="A67" s="54">
         <f>lookup_helper!D55</f>
         <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -27477,8 +26557,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27492,38 +26572,38 @@
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
+    <row r="1" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="69" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
+    <row r="2" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="69" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="56"/>
+      <c r="A5" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
@@ -27551,31 +26631,31 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="56"/>
+      <c r="A8" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27585,13 +26665,13 @@
     </row>
     <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27609,9 +26689,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>301</v>
-      </c>
+      <c r="A31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -27620,6 +26698,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
@@ -5,22 +5,22 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arcserver-svr\D\PPA_v2_SVR\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF5422-B754-4CD6-8D72-4EBA4FF30A92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2609C-6B97-4DAF-B672-F8BADEFC7BED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="lookup_helper" sheetId="5" r:id="rId2"/>
-    <sheet name="0_0TitlePg" sheetId="4" r:id="rId3"/>
-    <sheet name="0_1UsingThisReport" sheetId="12" r:id="rId4"/>
-    <sheet name="1ReduceVMT" sheetId="2" r:id="rId5"/>
+    <sheet name="0ATitlePg" sheetId="4" r:id="rId3"/>
+    <sheet name="0BUsingThisReport" sheetId="12" r:id="rId4"/>
+    <sheet name="1ReduceVMT" sheetId="13" r:id="rId5"/>
     <sheet name="2ReduceCongestion" sheetId="3" r:id="rId6"/>
     <sheet name="3Multimodal" sheetId="6" r:id="rId7"/>
-    <sheet name="4EconProsperity" sheetId="7" r:id="rId8"/>
+    <sheet name="4EconProsperity" sheetId="14" r:id="rId8"/>
     <sheet name="5Freight" sheetId="8" r:id="rId9"/>
     <sheet name="6Safety" sheetId="9" r:id="rId10"/>
     <sheet name="7SGR" sheetId="10" r:id="rId11"/>
@@ -29,11 +29,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$119</definedName>
-    <definedName name="_Hlk20929805" localSheetId="7">'4EconProsperity'!$A$86</definedName>
+    <definedName name="_Hlk20929805" localSheetId="7">'4EconProsperity'!$A$67</definedName>
     <definedName name="_Hlk20929868" localSheetId="10">'7SGR'!$A$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'1ReduceVMT'!$A$1:$H$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'3Multimodal'!$A$1:$H$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'5Freight'!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1ReduceVMT'!$A$1:$H$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'3Multimodal'!$A$1:$H$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'5Freight'!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'8SocioEconEquity'!$A$1:$H$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1ReduceVMT'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2ReduceCongestion'!$1:$2</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="309">
   <si>
     <t>data_item</t>
   </si>
@@ -773,18 +773,9 @@
     <t>Intersections per acre</t>
   </si>
   <si>
-    <t>Economic Prosperity Indicator 3: Access to services*:</t>
-  </si>
-  <si>
     <t>*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks.</t>
   </si>
   <si>
-    <t>Economic Prosperity Indicator 4: K-12 Enrollment within 0.5mi of project location:</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 5: Education Facility (K12 schools and higher education) Access</t>
-  </si>
-  <si>
     <t>Support Ag Economy</t>
   </si>
   <si>
@@ -876,9 +867,6 @@
   </si>
   <si>
     <t>15-min drive</t>
-  </si>
-  <si>
-    <t>VMT Indicator 1: Total change in jobs and dwelling units within 0.5mi of project:</t>
   </si>
   <si>
     <t>*The land use diversity index ranges from 0 to 1 and measures an area’s ratio of households to K-12 student enrollment, park acreage, and employment in the retail, service, and food sectors. A score of 1 indicates an “ideal” ratio of households to amenities that people use on a daily basis like shopping, restaurants, schools, etc. that in turn increases the likelihood that people living in those households will either walk or bike to these destinations, or drive a shorter distance.</t>
@@ -918,33 +906,6 @@
     <t>Project length with NPMRDS overlap</t>
   </si>
   <si>
-    <r>
-      <t>*Free-flow speed refers to the 85</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> percentile speed between the hours of 8pm-6am. It is supposed to represent the speed when there is no traffic congestion.
-Congested speed is the average speed during the slowest four hours of a typical weekday and for most project segments is during the AM and PM peak periods.</t>
-    </r>
-  </si>
-  <si>
     <t>*Travel time reliability (TTR) = 80th percentile travel time / 50th percentile travel time. Per 2017 MAP-21 performance criteria, a TTR score greater than 1.5 is considered "unreliable" for the indicated time period. A TTR of 1.00 corresponds to perfect reliability (i.e., it always takes the same amount of time to travel the project segment).</t>
   </si>
   <si>
@@ -978,9 +939,6 @@
     <t>Congestion Ratio</t>
   </si>
   <si>
-    <t>Congestion indicator 3: Total change in jobs plus dwelling units within 0.5mi of project :</t>
-  </si>
-  <si>
     <t>The Promote Economic Prosperity performance outcome includes three suboutcomes: job access, school access, and supporting the agricultural economy. Each of these suboutcomes has its own set of performance indicators. In your application you can choose which of these suboutcomes you want to be evaluated on. You can choose to be evaluated on one, two, or all three .</t>
   </si>
   <si>
@@ -991,9 +949,6 @@
   </si>
   <si>
     <t>VMT Indicator 2: Land use diversity index*</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 6: Change in Ag acreage share within 0.5mi of project location</t>
   </si>
   <si>
     <t>Using This Report</t>
@@ -1040,23 +995,55 @@
     <t>State of good repair indicator 3: Complete Streets Index</t>
   </si>
   <si>
+    <t>For arterials, the free-flow speed is the 60th percentile speed from 8pm-6am. It is supposed to approximate uncongested travel speed while excluding signal delay (i.e., delay not caused by demand exceeding supply).
+Congested speed is the average speed during the slowest four hours of a typical weekday and for most project segments is during the AM and PM peak periods.</t>
+  </si>
+  <si>
+    <t>VMT Indicator 1: Total change in jobs and dwelling units within 0.5mi of project:</t>
+  </si>
+  <si>
+    <t>VMT Indicator 3: Access to services*:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks. 
+Similar to the land use diversity index, if a project has more of these types of services within a feasible bikeing distance or shorter (15min) driving distance, then people who live or work near the project segment will on average generate less VMT in order to access these services.
+And in contrast to the diversity index,which shows services as a ratio of households to services, this indicator gives a better sense of the total amount of services available.
+</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 4: Education Facility (K12 schools and higher education) Access</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 5: Change in Ag acreage share within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>Project name: test_project_YubaCity</t>
+  </si>
+  <si>
+    <t>Project community type: Small-Town Established Communities</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 2: K-12 Enrollment within 0.5mi of project location:</t>
+  </si>
+  <si>
     <t>The complete streets index (CSI) is based on the densities of students, transit service, jobs, and dwelling units within a half mile of the project location and the project location’s posted speed limit. A higher CSI means higher densities of these input factors, meaning the street is more likely have many users of all modes (bike, walk, transit, drive) and thus derive greater benefit from complete streets treatments that make the project location better serve all types of road users. As posted speed limit increases beyond 40mph, the CSI will fall with all else being equal since fast vehicle speeds are less conducive to the street serving all users.
-If the complete streets score is -1, it means the project type selected is not eligible to be evaluated based on complete streets potential (e.g. freeway projects are not eligible for complete streets evaluation).</t>
+If the complete streets score is -1, it could mean that the project type selected is not eligible to be evaluated based on complete streets potential (e.g. freeway projects are not eligible for complete streets evaluation), or that a speed limit was not entered.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,14 +1243,6 @@
     <font>
       <i/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1779,7 +1758,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1917,17 +1896,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1947,9 +1923,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1958,10 +1931,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1970,10 +1943,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2576,347 +2562,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Share of land that is Ag use within project area</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$D$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.1236248623319337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FE6-4D93-BAA4-2F8C28BC2782}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1814706704"/>
-        <c:axId val="1818653760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1814706704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818653760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1818653760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1814706704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3543,7 +3188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3964,7 +3609,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4391,7 +4036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4826,7 +4471,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5296,7 +4941,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Jobs and Dwelling Units per Acre within 0.5mi of project</a:t>
+              <a:t>Total Jobs and Dwelling Units within 0.5mi of project</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5341,15 +4986,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$80</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dwelling units</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Dwelling units</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -5419,19 +5056,16 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>2016</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2040</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5450,7 +5084,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE5B-4CDB-B8C1-A06FFC3AAC86}"/>
+              <c16:uniqueId val="{00000000-814C-4DBF-ABB6-F8BF0A404ABF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5458,15 +5092,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jobs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Jobs</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -5536,19 +5162,16 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>2016</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2040</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5567,7 +5190,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35B7-4846-B2B6-AF6AF72A33E8}"/>
+              <c16:uniqueId val="{00000001-814C-4DBF-ABB6-F8BF0A404ABF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5855,15 +5478,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2016</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -5933,21 +5548,18 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$D$2,lookup_helper!$F$2,lookup_helper!$G$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Project</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Community Type</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Region</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5969,7 +5581,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F163-4D78-949C-9B4AA96BEDDC}"/>
+              <c16:uniqueId val="{00000000-DBEC-4879-806A-647E74D880A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6047,25 +5659,22 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$D$2,lookup_helper!$F$2,lookup_helper!$G$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Project</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Community Type</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Region</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$E$79,lookup_helper!$H$79,lookup_helper!$I$79)</c:f>
+              <c:f>(lookup_helper!$E$79,lookup_helper!$G$79,lookup_helper!$I$79)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6073,7 +5682,7 @@
                   <c:v>0.68192319179405259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65824713128427348</c:v>
+                  <c:v>0.99998912009623475</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93085349575304976</c:v>
@@ -6083,7 +5692,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F163-4D78-949C-9B4AA96BEDDC}"/>
+              <c16:uniqueId val="{00000001-DBEC-4879-806A-647E74D880A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6346,6 +5955,704 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base Year Service Accessibility by Mode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17074817169565648"/>
+          <c:y val="0.13517461787864751"/>
+          <c:w val="0.80231580396512936"/>
+          <c:h val="0.67025258607379956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Project</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Services within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Services within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Services within 15-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Services within 45-Min Transit</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>7.5514457831325306</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>19.925100401606429</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>238.27309236947789</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>51.080883534136547</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E5C-44DC-B9F6-918373F7A68A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Community Type</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Services within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Services within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Services within 15-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Services within 45-Min Transit</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>9.6835892389165004</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>43.011998510238037</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>144.64461021519989</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>25.241365850741079</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E5C-44DC-B9F6-918373F7A68A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Region</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Services within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Services within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Services within 15-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Services within 45-Min Transit</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>17.147198276435411</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>140.10012353515299</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>520.32769799543757</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>77.938922900995635</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E5C-44DC-B9F6-918373F7A68A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1592004848"/>
+        <c:axId val="1528980992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1592004848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528980992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1528980992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Services Accessible</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592004848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30698834616859638"/>
+          <c:y val="0.93382306623436773"/>
+          <c:w val="0.42030532764482548"/>
+          <c:h val="6.6176933765632245E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;L=</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6862,7 +7169,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7606,522 +7913,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Jobs and Dwelling Units within 0.5mi of project</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$80</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dwelling units</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$D$80:$E$80</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1916</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2072.611115859987</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-219A-48EA-8286-43B18AE1050F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jobs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$D$81:$E$81</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2761.6599999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-219A-48EA-8286-43B18AE1050F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="55"/>
-        <c:overlap val="100"/>
-        <c:axId val="1126743616"/>
-        <c:axId val="1440870240"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1126743616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1440870240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1440870240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1126743616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter>
-      <c:oddFooter>&amp;L*If no data appear for speed or reliability charts, it means no data were available for the project.</c:oddFooter>
-    </c:headerFooter>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8212,15 +8003,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Project</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -8290,37 +8073,34 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$43,lookup_helper!$B$44,lookup_helper!$B$45,lookup_helper!$B$46,lookup_helper!$E$2,lookup_helper!$F$2,lookup_helper!$G$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jobs within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jobs within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jobs within 30-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jobs within 45-Min Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Project</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Jobs within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jobs within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Jobs within 30-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Jobs within 45-Min Transit</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Project</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Community Type</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Region</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$D$43,lookup_helper!$D$44,lookup_helper!$D$45,lookup_helper!$D$46)</c:f>
+              <c:f>lookup_helper!$D$43:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8341,7 +8121,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-4117-43AC-B556-577713FCE445}"/>
+              <c16:uniqueId val="{00000000-0D9F-4F03-8D7A-8EF77991CCF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8349,15 +8129,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Community Type</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -8427,37 +8199,34 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$43,lookup_helper!$B$44,lookup_helper!$B$45,lookup_helper!$B$46,lookup_helper!$E$2,lookup_helper!$F$2,lookup_helper!$G$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jobs within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jobs within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jobs within 30-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jobs within 45-Min Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Project</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Jobs within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jobs within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Jobs within 30-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Jobs within 45-Min Transit</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Project</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Community Type</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Region</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$F$43,lookup_helper!$F$44,lookup_helper!$F$45,lookup_helper!$F$46)</c:f>
+              <c:f>lookup_helper!$F$43:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8478,7 +8247,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-4117-43AC-B556-577713FCE445}"/>
+              <c16:uniqueId val="{00000001-0D9F-4F03-8D7A-8EF77991CCF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8486,15 +8255,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Region</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -8564,37 +8325,34 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$43,lookup_helper!$B$44,lookup_helper!$B$45,lookup_helper!$B$46,lookup_helper!$E$2,lookup_helper!$F$2,lookup_helper!$G$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jobs within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jobs within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jobs within 30-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jobs within 45-Min Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Project</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Jobs within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jobs within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Jobs within 30-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Jobs within 45-Min Transit</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Project</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Community Type</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Region</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$G$43,lookup_helper!$G$44,lookup_helper!$G$45,lookup_helper!$G$46)</c:f>
+              <c:f>lookup_helper!$G$43:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8615,7 +8373,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-4117-43AC-B556-577713FCE445}"/>
+              <c16:uniqueId val="{00000002-0D9F-4F03-8D7A-8EF77991CCF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8912,7 +8670,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Base Year Service Accessibility by Mode</a:t>
+              <a:t>Base Year Education Accessibility by Mode</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8953,9 +8711,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17074817169565648"/>
+          <c:x val="8.8273939984306091E-2"/>
           <c:y val="0.13517461787864751"/>
-          <c:w val="0.80231580396512936"/>
+          <c:w val="0.88479007134417498"/>
           <c:h val="0.67025258607379956"/>
         </c:manualLayout>
       </c:layout>
@@ -8967,15 +8725,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Project</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -9045,49 +8795,46 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Services within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Services within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Services within 15-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Services within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Edu Facilities within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Edu Facilities within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Edu Facilities within 30-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Edu Facilities within 45-Min Transit</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$D$51,lookup_helper!$D$52,lookup_helper!$D$53,lookup_helper!$D$54)</c:f>
+              <c:f>lookup_helper!$D$47:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.5514457831325306</c:v>
+                  <c:v>1.2211646586345379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.925100401606429</c:v>
+                  <c:v>5.2928514056224891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>238.27309236947789</c:v>
+                  <c:v>94.170281124498004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.080883534136547</c:v>
+                  <c:v>10.89180722891566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-C6EE-4C16-B6BC-53FADD444E3F}"/>
+              <c16:uniqueId val="{00000000-11DE-4846-AEB6-856041241491}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9095,15 +8842,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Community Type</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -9173,49 +8912,46 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Services within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Services within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Services within 15-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Services within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Edu Facilities within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Edu Facilities within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Edu Facilities within 30-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Edu Facilities within 45-Min Transit</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$F$51,lookup_helper!$F$52,lookup_helper!$F$53,lookup_helper!$F$54)</c:f>
+              <c:f>lookup_helper!$F$47:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.6835892389165004</c:v>
+                  <c:v>2.8359657898456958</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.011998510238037</c:v>
+                  <c:v>11.725412674938291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.64461021519989</c:v>
+                  <c:v>163.7723231043594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.241365850741079</c:v>
+                  <c:v>6.3673234849555804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-C6EE-4C16-B6BC-53FADD444E3F}"/>
+              <c16:uniqueId val="{00000001-11DE-4846-AEB6-856041241491}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9223,15 +8959,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Region</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -9301,49 +9029,46 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Services within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Services within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Services within 15-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Services within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Edu Facilities within 30-Min Walk</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Edu Facilities within 30-Min Biking</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Edu Facilities within 30-Min Drive</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Edu Facilities within 45-Min Transit</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$G$51,lookup_helper!$G$52,lookup_helper!$G$53,lookup_helper!$G$54)</c:f>
+              <c:f>lookup_helper!$G$47:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.147198276435411</c:v>
+                  <c:v>4.6382414187566914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.10012353515299</c:v>
+                  <c:v>38.186082797940898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>520.32769799543757</c:v>
+                  <c:v>492.55290133648589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.938922900995635</c:v>
+                  <c:v>19.46065842045931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-C6EE-4C16-B6BC-53FADD444E3F}"/>
+              <c16:uniqueId val="{00000002-11DE-4846-AEB6-856041241491}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9632,31 +9357,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Base Year Education Accessibility by Mode</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12411111111111112"/>
+          <c:y val="3.8567493112947659E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9688,17 +9396,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17074817169565648"/>
-          <c:y val="0.13517461787864751"/>
-          <c:w val="0.80231580396512936"/>
-          <c:h val="0.67025258607379956"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -9707,15 +9405,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Share of land that is Ag use within project area</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -9736,7 +9426,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -9785,305 +9475,35 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>lookup_helper!$B$47:$B$50</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Edu Facilities within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Edu Facilities within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Edu Facilities within 30-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Edu Facilities within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>2016</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2040</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lookup_helper!$D$47:$D$50</c:f>
+              <c:f>lookup_helper!$D$5:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.2211646586345379</c:v>
+                  <c:v>0.1236248623319337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2928514056224891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94.170281124498004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.89180722891566</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4136-4FB2-B332-E360D914229A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>lookup_helper!$B$47:$B$50</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Edu Facilities within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Edu Facilities within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Edu Facilities within 30-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Edu Facilities within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$F$47:$F$50</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.8359657898456958</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.725412674938291</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>163.7723231043594</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3673234849555804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4136-4FB2-B332-E360D914229A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>lookup_helper!$B$47:$B$50</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Edu Facilities within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Edu Facilities within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Edu Facilities within 30-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Edu Facilities within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$G$47:$G$50</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.6382414187566914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38.186082797940898</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>492.55290133648589</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.46065842045931</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4136-4FB2-B332-E360D914229A}"/>
+              <c16:uniqueId val="{00000000-984E-4913-A0EA-1FA4D0BE2F71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10095,12 +9515,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1592004848"/>
-        <c:axId val="1528980992"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1814706704"/>
+        <c:axId val="1818653760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1592004848"/>
+        <c:axId val="1814706704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10143,7 +9564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1528980992"/>
+        <c:crossAx val="1818653760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10151,7 +9572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1528980992"/>
+        <c:axId val="1818653760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10172,62 +9593,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total Services Accessible</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10258,7 +9624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1592004848"/>
+        <c:crossAx val="1814706704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10270,47 +9636,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30698834616859638"/>
-          <c:y val="0.93382306623436773"/>
-          <c:w val="0.42030532764482548"/>
-          <c:h val="6.6176933765632245E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10348,11 +9673,9 @@
     </a:p>
   </c:txPr>
   <c:printSettings>
-    <c:headerFooter>
-      <c:oddHeader>&amp;L=</c:oddHeader>
-    </c:headerFooter>
+    <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -10558,46 +9881,6 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13975,509 +13258,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -18551,13 +17331,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18565,7 +17345,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343BD12B-DE6F-47F0-A746-2254B00691E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB98D289-8E73-4C61-8C56-6C0520FDBD61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18589,13 +17369,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18603,7 +17383,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A537D093-D18C-43CF-B421-A427C24DE4E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AAD523-609B-447D-A57A-24FEF96626B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18618,6 +17398,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A089BBD3-A960-4B07-AB96-D841B830E952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18700,44 +17518,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76D8086-4F7B-4D28-AAA6-09D8147F701F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18761,11 +17541,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9380BACB-5C08-4A11-B1EB-FB14AAE9497C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D86F48-746B-4712-8828-B383408FF53D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -18782,22 +17564,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8191F7D-D208-4E3E-A62D-9353B734C8EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9A1B01-D224-4502-AAAA-2BBEBFDA11BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18820,22 +17602,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1047751</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06621BC6-AB07-4C13-AD66-3D890573E97A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13FD0F2-4711-4BE5-A8FE-94779A1ECD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18850,42 +17632,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4000EC27-DEA6-4571-95D8-5B4D47A5C96F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19391,8 +18137,8 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19438,10 +18184,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19478,7 +18224,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B8">
         <v>1.41</v>
@@ -20091,16 +18837,28 @@
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="80">
+      <c r="B68" s="78">
         <v>1.3624389724527719</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.19527333899999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="80">
+      <c r="B69" s="78">
         <v>1.475654647382425</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.18979411900000001</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -20612,8 +19370,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20639,24 +19397,24 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="A5" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -20667,55 +19425,55 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="B35" s="35" t="s">
+    <row r="39" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C39" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="47">
+        <f>VLOOKUP($A38,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="B36" s="47">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="B40" s="47">
+        <f>VLOOKUP($A38,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="C36" s="47">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="C40" s="47">
+        <f>VLOOKUP($A38,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -20733,8 +19491,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20760,12 +19518,12 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -20776,7 +19534,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -20787,26 +19545,26 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+      <c r="A14" s="88">
         <f>VLOOKUP("Complete street score",lookup_helper!$B:$D,3,FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
+      <c r="A16" s="103" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20823,7 +19581,7 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20853,12 +19611,12 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -20869,12 +19627,12 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>234</v>
@@ -20899,12 +19657,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -20941,21 +19699,21 @@
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
-        <v>263</v>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
+      <c r="A86" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
       <c r="H86" s="66"/>
       <c r="I86" s="66"/>
     </row>
@@ -20979,9 +19737,9 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21702,7 +20460,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="64" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="62">
         <f t="array" ref="Q18">MAX(IF(ISNUMBER(SEARCH("calc_len",import!$A:$A)),import!$B:$B))</f>
@@ -21748,7 +20506,7 @@
         <v>171</v>
       </c>
       <c r="P19" s="61" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="65">
         <f>(Q18/5280)/D118</f>
@@ -23234,19 +21992,19 @@
       <c r="C60" t="s">
         <v>211</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.1021114271418558</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>5.8844134774233253E-2</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.480071598380431E-2</v>
       </c>
@@ -23269,19 +22027,19 @@
       <c r="C61" t="s">
         <v>211</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.872619731652339</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>7.4149284958128156E-2</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>7.332683167880813E-2</v>
       </c>
@@ -23304,19 +22062,19 @@
       <c r="C62" t="s">
         <v>211</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.33368336973414081</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>9.9496332560479198E-2</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.1052465714535069</v>
       </c>
@@ -23339,19 +22097,19 @@
       <c r="C63" t="s">
         <v>217</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="93">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>13.047842643653521</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="93">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>69.301955921047991</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="93">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="93">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -23374,19 +22132,19 @@
       <c r="C64" t="s">
         <v>217</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <f>VLOOKUP($A64,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.3710956366053659</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <f>VLOOKUP($A64,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.3582230858271871</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <f>VLOOKUP($A64,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <f>VLOOKUP($A64,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -23399,37 +22157,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="88" t="s">
+    <row r="65" spans="1:9" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="88" t="s">
+      <c r="C65" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="86">
+      <c r="D65" s="84">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1175.845221386116</v>
       </c>
-      <c r="E65" s="86">
+      <c r="E65" s="84">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="86">
+      <c r="F65" s="84">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="86">
+      <c r="G65" s="84">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="88">
+      <c r="H65" s="86">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="88">
+      <c r="I65" s="86">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -23924,72 +22682,72 @@
         <v>0.93085349575304976</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="88" t="s">
+    <row r="80" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="88" t="s">
+      <c r="C80" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="86">
+      <c r="D80" s="84">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1916</v>
       </c>
-      <c r="E80" s="86">
+      <c r="E80" s="84">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2072.611115859987</v>
       </c>
-      <c r="F80" s="88">
+      <c r="F80" s="86">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G80" s="88">
+      <c r="G80" s="86">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="88">
+      <c r="H80" s="86">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I80" s="88">
+      <c r="I80" s="86">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="88" t="s">
+    <row r="81" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="88" t="s">
+      <c r="C81" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="D81" s="86">
+      <c r="D81" s="84">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1769</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E81" s="84">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2761.6599999999989</v>
       </c>
-      <c r="F81" s="88">
+      <c r="F81" s="86">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="88">
+      <c r="G81" s="86">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="88">
+      <c r="H81" s="86">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="86">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -24029,72 +22787,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="86" t="s">
+    <row r="83" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="87" t="s">
+      <c r="B83" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="89">
+      <c r="D83" s="87">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.3624389724527719</v>
       </c>
-      <c r="E83" s="89">
+      <c r="E83" s="87">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="89">
+      <c r="F83" s="87">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G83" s="87">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="89">
+        <v>0.19527333899999999</v>
+      </c>
+      <c r="H83" s="87">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I83" s="89">
+      <c r="I83" s="87">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="86" t="s">
+    <row r="84" spans="1:16" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="87" t="s">
+      <c r="B84" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="D84" s="89">
+      <c r="D84" s="87">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.475654647382425</v>
       </c>
-      <c r="E84" s="89">
+      <c r="E84" s="87">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F84" s="89">
+      <c r="F84" s="87">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="89">
+        <v>2.6</v>
+      </c>
+      <c r="G84" s="87">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="89">
+        <v>0.18979411900000001</v>
+      </c>
+      <c r="H84" s="87">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I84" s="89">
+      <c r="I84" s="87">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -24179,19 +22937,19 @@
       <c r="C87" t="s">
         <v>206</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="94">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="94">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="94">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="94">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
@@ -24249,19 +23007,19 @@
       <c r="C89" t="s">
         <v>206</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="94">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.474480921569314</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="94">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="94">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.6732642555122741</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="94">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.2819088722919141</v>
       </c>
@@ -24354,19 +23112,19 @@
       <c r="C92" t="s">
         <v>206</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2.1232525270598122</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.28524510017006321</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.40140092908768138</v>
       </c>
@@ -24459,19 +23217,19 @@
       <c r="C95" t="s">
         <v>216</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.69863722615145762</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.34730153421679688</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.3746385676273582</v>
       </c>
@@ -24489,7 +23247,7 @@
         <v>71</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C96" t="s">
         <v>216</v>
@@ -24519,7 +23277,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P96" s="28"/>
     </row>
@@ -24528,7 +23286,7 @@
         <v>72</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
         <v>216</v>
@@ -24558,7 +23316,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P97" s="28"/>
     </row>
@@ -24567,7 +23325,7 @@
         <v>73</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
         <v>216</v>
@@ -24597,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P98" s="28"/>
     </row>
@@ -24606,7 +23364,7 @@
         <v>74</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C99" t="s">
         <v>216</v>
@@ -24636,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P99" s="28"/>
     </row>
@@ -24645,7 +23403,7 @@
         <v>75</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
         <v>216</v>
@@ -24675,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P100" s="28"/>
     </row>
@@ -24684,7 +23442,7 @@
         <v>76</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
         <v>216</v>
@@ -24714,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P101" s="28"/>
     </row>
@@ -24723,7 +23481,7 @@
         <v>77</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
         <v>216</v>
@@ -24753,7 +23511,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P102" s="28"/>
     </row>
@@ -24762,7 +23520,7 @@
         <v>78</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C103" t="s">
         <v>216</v>
@@ -24792,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P103" s="28"/>
     </row>
@@ -24801,7 +23559,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
         <v>216</v>
@@ -24831,7 +23589,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P104" s="28"/>
     </row>
@@ -24840,7 +23598,7 @@
         <v>80</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s">
         <v>216</v>
@@ -24870,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P105" s="28"/>
     </row>
@@ -24879,7 +23637,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
         <v>216</v>
@@ -24909,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P106" s="28"/>
     </row>
@@ -24918,7 +23676,7 @@
         <v>82</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C107" t="s">
         <v>216</v>
@@ -24948,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P107" s="28"/>
     </row>
@@ -24957,7 +23715,7 @@
         <v>83</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
         <v>216</v>
@@ -24987,7 +23745,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P108" s="28"/>
     </row>
@@ -24996,7 +23754,7 @@
         <v>84</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
         <v>216</v>
@@ -25026,7 +23784,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P109" s="28"/>
     </row>
@@ -25035,7 +23793,7 @@
         <v>85</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
         <v>216</v>
@@ -25065,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P110" s="28"/>
     </row>
@@ -25074,7 +23832,7 @@
         <v>86</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -25104,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P111" s="28"/>
     </row>
@@ -25145,10 +23903,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C113" t="s">
         <v>204</v>
@@ -25320,10 +24078,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C118" t="s">
         <v>204</v>
@@ -25402,9 +24160,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25415,40 +24171,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="str">
+      <c r="A2" s="96" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -25461,12 +24217,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="31" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
@@ -25474,7 +24230,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -25485,60 +24241,60 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="31" t="str">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="32">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="32">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="32">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
+      <c r="A37" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="48">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
@@ -25549,12 +24305,12 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="31" t="str">
         <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -25610,7 +24366,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -25624,7 +24380,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <f ca="1">NOW()</f>
-        <v>43866.38463310185</v>
+        <v>43900.451113773146</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -25669,8 +24425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E9A7A-76C4-4F5E-A5E5-551C242D3604}">
   <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25683,54 +24439,54 @@
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>302</v>
+      <c r="A5" s="83" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="A6" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>301</v>
+      <c r="A9" s="83" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
+      <c r="A10" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="70"/>
@@ -25740,7 +24496,7 @@
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
+      <c r="A29" s="80"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -25872,12 +24628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCAFD4-91AA-4A54-9D7E-20D5302EC54C}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D2C575-8E21-4C60-B569-E75F663B7519}">
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25886,15 +24641,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="58" t="str">
-        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project name: test_project_YubaCity</v>
+      <c r="H1" s="58" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="58" t="str">
-        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project community type: Small-Town Established Communities</v>
+      <c r="H2" s="58" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -25902,60 +24655,81 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-    </row>
-    <row r="42" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+    </row>
+    <row r="43" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A42:H42"/>
+  <mergeCells count="2">
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A67:H67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
@@ -25968,8 +24742,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26000,7 +24774,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -26028,153 +24802,151 @@
       <c r="A13" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="76" t="str">
+      <c r="A22" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="75" t="str">
         <f>lookup_helper!Q7</f>
         <v>EB</v>
       </c>
-      <c r="C22" s="76" t="str">
+      <c r="C22" s="75" t="str">
         <f>lookup_helper!R7</f>
         <v>WB</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="81">
+      <c r="A23" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="79">
         <f>IFERROR(lookup_helper!Q9/lookup_helper!Q8,0)</f>
         <v>0.62906584321456371</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="79">
         <f>IFERROR(lookup_helper!R9/lookup_helper!R8,0)</f>
         <v>0.81902208942477273</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="72"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83">
+      <c r="A26" s="81">
         <f>VLOOKUP(A25,lookup_helper!$B:$D,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-    </row>
-    <row r="29" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+    </row>
+    <row r="29" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="96" t="s">
-        <v>283</v>
-      </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
+      <c r="A62" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>294</v>
-      </c>
+      <c r="A65" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26195,8 +24967,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26227,13 +24999,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
@@ -26271,24 +25043,24 @@
       <c r="C10" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -26370,7 +25142,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -26393,12 +25165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8A5C7-BD60-4FDC-AB65-BF967BB22109}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A26BBF-5B98-434C-8B40-C08E39D8760C}">
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26407,15 +25178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="69" t="str">
-        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project name: test_project_YubaCity</v>
+      <c r="H1" s="69" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="69" t="str">
-        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project community type: Small-Town Established Communities</v>
+      <c r="H2" s="69" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -26427,33 +25196,33 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="A5" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -26485,65 +25254,51 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="96" t="s">
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="54">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="91"/>
+    </row>
+    <row r="65" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
+    </row>
+    <row r="66" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="66"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="54">
-        <f>lookup_helper!D55</f>
-        <v>657</v>
-      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A62:H62"/>
+  <mergeCells count="1">
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26555,10 +25310,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD69D76-764D-4B96-9AC3-904BF933FEFC}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26589,20 +25344,20 @@
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="A5" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
       <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -26631,65 +25386,65 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
+      <c r="A8" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="55"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="B28" s="35" t="s">
+    <row r="37" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C37" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
-        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>7.072357263990954E-2</v>
       </c>
-      <c r="B29" s="42">
-        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="B38" s="42">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>0.1343871705182399</v>
       </c>
-      <c r="C29" s="42">
-        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="C38" s="42">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>0.13021497769289109</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arcserver-svr\D\PPA_v2_SVR\PPA2\Input_Template\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F0653-3CB6-4614-80AA-191CB84A9747}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C71EDC9-306A-4A8F-8403-6FFB961EBA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="495" windowWidth="22815" windowHeight="13080" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0ATitlePg" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3002,433 +3004,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Entry-Level Job Accessibility for EJ Populations </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Adjacent to Project</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>lookup_helper!$B$100:$B$103</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>30-min walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30-min biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-min drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45-min transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$D$100:$D$103</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>272.66024096385541</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>795.25333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12386.82514056225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1514.9185542168671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5E3-46E9-A4BB-CF4983A9EDA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1587649183"/>
-        <c:axId val="1544029663"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1587649183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2160000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1544029663"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1544029663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Destinations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1587649183"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Education</a:t>
             </a:r>
             <a:r>
@@ -3829,7 +3404,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4264,7 +3839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9887,46 +9462,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12260,509 +11795,6 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17686,22 +16718,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>57147</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685797</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486BF543-A7FF-4787-BAD3-3676364CE88E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6DEDB4-1421-452B-82AE-DFC951CAEAC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17724,53 +16756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>61910</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>4764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>33335</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6DEDB4-1421-452B-82AE-DFC951CAEAC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17791,7 +16785,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18143,9 +17137,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18408,9 +17400,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18532,23 +17522,25 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="99" t="s">
+    <row r="72" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="99"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="65"/>
       <c r="I86" s="65"/>
     </row>
-    <row r="90" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="8:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A72:G72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="96" orientation="portrait" r:id="rId1"/>
@@ -24541,7 +23533,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
@@ -24766,8 +23758,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24776,8 +23768,9 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">

--- a/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C71EDC9-306A-4A8F-8403-6FFB961EBA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D854A00E-1578-4E5E-9507-EAD58C232238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0ATitlePg" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_Hlk20929805" localSheetId="5">'4EconProsperity'!$A$67</definedName>
     <definedName name="_Hlk20929868" localSheetId="8">'7SGR'!$A$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1ReduceVMT'!$A$1:$H$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'3Multimodal'!$A$1:$H$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'3Multimodal'!$A$1:$H$115</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'5Freight'!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'8SocioEconEquity'!$A$1:$H$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'1ReduceVMT'!$1:$2</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="313">
   <si>
     <t>data_item</t>
   </si>
@@ -1030,6 +1030,18 @@
       <t xml:space="preserve"> "how much growth will this road project cause?".
 Similarly, for performance outcomes like safety or congestion reduction, the report tells the reviewer if there currently is a problem with congestion or safety (e.g., high collision rate), but it does not say whether the proposed project will improve the issue, e.g., it won't say whether widening a congested segment will reduce its congestion, nor will it say whether a proposed safety project will address the root cause of the safety issue.</t>
     </r>
+  </si>
+  <si>
+    <t>Multi-modal indicator 4: Residential Mode Split:</t>
+  </si>
+  <si>
+    <t>NOTE - The 2040 mode split shown below is based on modeled values estimated</t>
+  </si>
+  <si>
+    <t>for SACOG's 2020 MTP-SCS. As with all other 2040 values in this report, they do NOT factor in</t>
+  </si>
+  <si>
+    <t>the potential effects of the project for which this report was generated.</t>
   </si>
 </sst>
 </file>
@@ -2583,6 +2595,633 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Fatal and Bike-Ped Collisions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Project</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(lookup_helper!$B$90,lookup_helper!$B$93)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Pct of collisions that are fatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percent of collisions with bike/ped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$D$90,lookup_helper!$D$93)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.5714285714285719E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3571428571428568E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-C726-4439-A329-B1396ECCEF32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Community Type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(lookup_helper!$B$90,lookup_helper!$B$93)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Pct of collisions that are fatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percent of collisions with bike/ped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$F$90,lookup_helper!$F$93)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.7369826435246991E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13484646194926569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-C726-4439-A329-B1396ECCEF32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(lookup_helper!$B$90,lookup_helper!$B$93)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Pct of collisions that are fatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percent of collisions with bike/ped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$G$90,lookup_helper!$G$93)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.022900763358779E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1221919302071974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-C726-4439-A329-B1396ECCEF32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1577134367"/>
+        <c:axId val="1541216127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1577134367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541216127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1541216127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577134367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Total Job Accessibility for EJ Populations Adjacent to Project</a:t>
             </a:r>
           </a:p>
@@ -2969,7 +3608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3404,7 +4043,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3839,7 +4478,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5086,22 +5725,25 @@
             </c:strLit>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>7.5514457831325306</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>19.925100401606429</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>238.27309236947789</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>51.080883534136547</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>lookup_helper!$D$51:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.5514457831325306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.925100401606429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.27309236947789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.080883534136547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5200,22 +5842,25 @@
             </c:strLit>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>9.6835892389165004</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>43.011998510238037</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>144.64461021519989</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>25.241365850741079</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>lookup_helper!$F$51:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.6835892389165004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.011998510238037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.64461021519989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.241365850741079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5314,22 +5959,25 @@
             </c:strLit>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>17.147198276435411</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>140.10012353515299</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>520.32769799543757</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>77.938922900995635</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>lookup_helper!$G$51:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.147198276435411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.10012353515299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520.32769799543757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.938922900995635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5477,7 +6125,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6889,6 +7537,386 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residential Mode Split within 0.5mi of Project</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Location</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lookup_helper!$B$7:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Single-occupant vehicle trips</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carpool trips</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transit trips</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Biking trips</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walking trips</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lookup_helper!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34736895830143422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5294237737967642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3911090695656604E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9445720410350639E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7884958913897823E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB6A-4D04-A981-1FD7DB9090D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>lookup_helper!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36404675917126023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49786162326553879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.397072799847938E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0385858201862759E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6818095419121846E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB6A-4D04-A981-1FD7DB9090D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:axId val="1126743616"/>
+        <c:axId val="1440870240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1126743616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440870240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1440870240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1126743616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -7590,7 +8618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8297,7 +9325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8631,633 +9659,6 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fatal and Bike-Ped Collisions</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$90,lookup_helper!$B$93)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Pct of collisions that are fatal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Percent of collisions with bike/ped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(lookup_helper!$D$90,lookup_helper!$D$93)</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3.5714285714285719E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3571428571428568E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-C726-4439-A329-B1396ECCEF32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$90,lookup_helper!$B$93)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Pct of collisions that are fatal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Percent of collisions with bike/ped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(lookup_helper!$F$90,lookup_helper!$F$93)</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.7369826435246991E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13484646194926569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-C726-4439-A329-B1396ECCEF32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$90,lookup_helper!$B$93)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Pct of collisions that are fatal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Percent of collisions with bike/ped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(lookup_helper!$G$90,lookup_helper!$G$93)</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.022900763358779E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1221919302071974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-C726-4439-A329-B1396ECCEF32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1577134367"/>
-        <c:axId val="1541216127"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1577134367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1541216127"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1541216127"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1577134367"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -16522,6 +16923,49 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F897BD7-2807-49FC-98A5-E5FF9F7ACD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>61911</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -16636,7 +17080,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16677,7 +17121,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16794,7 +17238,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18791,8 +19235,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B110" sqref="B110"/>
       <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
@@ -23756,11 +24200,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87207DCC-1888-4FF1-B645-7715A9482FCA}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23945,6 +24387,26 @@
         <v>229</v>
       </c>
     </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="46" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A12:E12"/>
@@ -23956,6 +24418,7 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="42" max="7" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D854A00E-1578-4E5E-9507-EAD58C232238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17D199-0F72-417B-989F-2F9333F19C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1888,7 +1888,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2008,6 +2007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -17592,40 +17592,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="str">
+      <c r="A2" s="95" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -17638,84 +17638,84 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="31" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="31" t="str">
         <f>VLOOKUP(A32,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>anyplace</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="31" t="str">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="32">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="32">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="32">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="48">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
@@ -17726,12 +17726,12 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="31" t="str">
         <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -17786,7 +17786,7 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="55" t="s">
         <v>303</v>
       </c>
       <c r="B43" s="11"/>
@@ -17799,7 +17799,7 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -17856,20 +17856,20 @@
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+    <row r="1" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+    <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -17962,24 +17962,24 @@
       <c r="E21" s="51"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="66" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="99" t="s">
+      <c r="A72" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
     </row>
     <row r="90" spans="8:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -18001,9 +18001,9 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B110" sqref="B110"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18702,7 +18702,7 @@
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="77">
+      <c r="B68" s="76">
         <v>1.3624389724527719</v>
       </c>
       <c r="D68" s="5">
@@ -18716,7 +18716,7 @@
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="77">
+      <c r="B69" s="76">
         <v>1.475654647382425</v>
       </c>
       <c r="D69" s="5">
@@ -19238,7 +19238,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B110" sqref="B110"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19958,14 +19958,14 @@
         <f>VLOOKUP($A18,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="63" t="s">
+      <c r="P18" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="Q18" s="61">
+      <c r="Q18" s="60">
         <f t="array" ref="Q18">MAX(IF(ISNUMBER(SEARCH("calc_len",import!$A:$A)),import!$B:$B))</f>
         <v>7460.2525126827086</v>
       </c>
-      <c r="R18" s="62"/>
+      <c r="R18" s="61"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -20004,10 +20004,10 @@
       <c r="J19" t="s">
         <v>170</v>
       </c>
-      <c r="P19" s="60" t="s">
+      <c r="P19" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q19" s="63">
         <f>(Q18/5280)/D118</f>
         <v>1.0020756115251865</v>
       </c>
@@ -21596,19 +21596,19 @@
       <c r="C63" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="91">
+      <c r="D63" s="90">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>13.047842643653521</v>
       </c>
-      <c r="E63" s="91">
+      <c r="E63" s="90">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>69.301955921047991</v>
       </c>
-      <c r="F63" s="91">
+      <c r="F63" s="90">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G63" s="91">
+      <c r="G63" s="90">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -21656,37 +21656,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="85" t="s">
+    <row r="65" spans="1:9" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="85" t="s">
+      <c r="C65" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="D65" s="83">
+      <c r="D65" s="82">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1175.845221386116</v>
       </c>
-      <c r="E65" s="83">
+      <c r="E65" s="82">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="83">
+      <c r="F65" s="82">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="83">
+      <c r="G65" s="82">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="85">
+      <c r="H65" s="84">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="85">
+      <c r="I65" s="84">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -22181,72 +22181,72 @@
         <v>0.93085349575304976</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="85" t="s">
+    <row r="80" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="84" t="s">
+      <c r="B80" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="D80" s="83">
+      <c r="D80" s="82">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1916</v>
       </c>
-      <c r="E80" s="83">
+      <c r="E80" s="82">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2072.611115859987</v>
       </c>
-      <c r="F80" s="85">
+      <c r="F80" s="84">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G80" s="85">
+      <c r="G80" s="84">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="85">
+      <c r="H80" s="84">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I80" s="85">
+      <c r="I80" s="84">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="85" t="s">
+    <row r="81" spans="1:16" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="84" t="s">
+      <c r="B81" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="D81" s="83">
+      <c r="D81" s="82">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1769</v>
       </c>
-      <c r="E81" s="83">
+      <c r="E81" s="82">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2761.6599999999989</v>
       </c>
-      <c r="F81" s="85">
+      <c r="F81" s="84">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="85">
+      <c r="G81" s="84">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="85">
+      <c r="H81" s="84">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="85">
+      <c r="I81" s="84">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -22286,72 +22286,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83" t="s">
+    <row r="83" spans="1:16" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="C83" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="86">
+      <c r="D83" s="85">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.3624389724527719</v>
       </c>
-      <c r="E83" s="86">
+      <c r="E83" s="85">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="86">
+      <c r="F83" s="85">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G83" s="86">
+      <c r="G83" s="85">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.19527333899999999</v>
       </c>
-      <c r="H83" s="86">
+      <c r="H83" s="85">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I83" s="86">
+      <c r="I83" s="85">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="83" t="s">
+    <row r="84" spans="1:16" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="B84" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="D84" s="86">
+      <c r="D84" s="85">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.475654647382425</v>
       </c>
-      <c r="E84" s="86">
+      <c r="E84" s="85">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F84" s="86">
+      <c r="F84" s="85">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2.6</v>
       </c>
-      <c r="G84" s="86">
+      <c r="G84" s="85">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.18979411900000001</v>
       </c>
-      <c r="H84" s="86">
+      <c r="H84" s="85">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I84" s="86">
+      <c r="I84" s="85">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
@@ -22436,19 +22436,19 @@
       <c r="C87" t="s">
         <v>205</v>
       </c>
-      <c r="D87" s="92">
+      <c r="D87" s="91">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="E87" s="92">
+      <c r="E87" s="91">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F87" s="92">
+      <c r="F87" s="91">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="G87" s="92">
+      <c r="G87" s="91">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
@@ -22506,19 +22506,19 @@
       <c r="C89" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="92">
+      <c r="D89" s="91">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.474480921569314</v>
       </c>
-      <c r="E89" s="92">
+      <c r="E89" s="91">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F89" s="92">
+      <c r="F89" s="91">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.6732642555122741</v>
       </c>
-      <c r="G89" s="92">
+      <c r="G89" s="91">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.2819088722919141</v>
       </c>
@@ -23676,88 +23676,88 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="78"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="48"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
@@ -23815,7 +23815,7 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -23826,7 +23826,7 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -23874,13 +23874,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
@@ -23904,45 +23904,45 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
     </row>
     <row r="43" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
     </row>
     <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
@@ -23950,16 +23950,16 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="99" t="s">
+      <c r="A67" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23987,20 +23987,20 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+    <row r="1" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+    <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24037,131 +24037,131 @@
       <c r="A13" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="74" t="str">
+      <c r="B22" s="73" t="str">
         <f>lookup_helper!Q7</f>
         <v>EB</v>
       </c>
-      <c r="C22" s="74" t="str">
+      <c r="C22" s="73" t="str">
         <f>lookup_helper!R7</f>
         <v>WB</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="78">
+      <c r="B23" s="77">
         <f>IFERROR(lookup_helper!Q9/lookup_helper!Q8,0)</f>
         <v>0.62906584321456371</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <f>IFERROR(lookup_helper!R9/lookup_helper!R8,0)</f>
         <v>0.81902208942477273</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="71"/>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="80">
+      <c r="A26" s="79">
         <f>VLOOKUP(A25,lookup_helper!$B:$D,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
@@ -24169,16 +24169,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="99" t="s">
+      <c r="A62" s="98" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
@@ -24202,7 +24202,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24215,20 +24215,20 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+    <row r="1" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+    <row r="2" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24236,13 +24236,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
@@ -24280,24 +24280,24 @@
       <c r="C10" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -24427,7 +24427,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24435,20 +24435,20 @@
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+    <row r="1" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+    <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24456,26 +24456,26 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
@@ -24528,7 +24528,8 @@
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="54">
+      <c r="A46" s="103">
+        <f>VLOOKUP("K-12 school enrollment",lookup_helper!$B:$D,3,FALSE)</f>
         <v>657</v>
       </c>
     </row>
@@ -24538,10 +24539,10 @@
       </c>
     </row>
     <row r="64" spans="1:1" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
+      <c r="A64" s="88"/>
     </row>
     <row r="65" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
+      <c r="A65" s="89"/>
     </row>
     <row r="66" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -24587,20 +24588,20 @@
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+    <row r="1" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+    <row r="2" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24608,17 +24609,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="55"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
@@ -24646,17 +24647,17 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="55"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
@@ -24731,20 +24732,20 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+    <row r="1" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+    <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24752,16 +24753,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -24838,7 +24839,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="79" t="s">
+      <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
     </row>
@@ -24892,20 +24893,20 @@
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="68" t="str">
+    <row r="1" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="67" t="str">
         <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project name: test_project_YubaCity</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="68" t="str">
+    <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="67" t="str">
         <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24940,22 +24941,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
+      <c r="A14" s="92">
         <f>VLOOKUP("Complete street score",lookup_helper!$B:$D,3,FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_SGR_CS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17D199-0F72-417B-989F-2F9333F19C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A1A20F-C30B-4147-98FB-64D8B70E77F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,9 +982,6 @@
 If the complete streets score is -1, it could mean that the project type selected is not eligible to be evaluated based on complete streets potential (e.g. freeway projects are not eligible for complete streets evaluation), or that a speed limit was not entered.</t>
   </si>
   <si>
-    <t>Safety Indicator 4: Bike + Ped Fatalities per Project Centerline Mile</t>
-  </si>
-  <si>
     <t>Bike/ped collisions per road centerline mile</t>
   </si>
   <si>
@@ -1042,6 +1039,9 @@
   </si>
   <si>
     <t>the potential effects of the project for which this report was generated.</t>
+  </si>
+  <si>
+    <t>Safety Indicator 4: Bike + Ped Collisions per Project Centerline Mile</t>
   </si>
 </sst>
 </file>
@@ -1980,6 +1980,7 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2007,7 +2008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -5268,7 +5268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(lookup_helper!$E$79,lookup_helper!$G$79,lookup_helper!$I$79)</c:f>
+              <c:f>(lookup_helper!$E$79,lookup_helper!$H$79,lookup_helper!$I$79)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5276,7 +5276,7 @@
                   <c:v>0.68192319179405259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99998912009623475</c:v>
+                  <c:v>0.65824713128427348</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93085349575304976</c:v>
@@ -17592,40 +17592,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="str">
+      <c r="A2" s="96" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -17638,12 +17638,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="31" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
@@ -17662,60 +17662,60 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="31" t="str">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="32">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="32">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="32">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="48">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
@@ -17726,12 +17726,12 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="31" t="str">
         <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -17787,7 +17787,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -17967,15 +17967,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98" t="s">
+      <c r="A72" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="98"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="64"/>
@@ -22606,7 +22606,7 @@
         <v>25</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
         <v>205</v>
@@ -23691,17 +23691,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
@@ -23709,17 +23709,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="A10" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="68"/>
@@ -23913,16 +23913,16 @@
       <c r="H42" s="87"/>
     </row>
     <row r="43" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="87"/>
@@ -23950,16 +23950,16 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="98"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24092,16 +24092,16 @@
       <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="71"/>
@@ -24169,16 +24169,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="98"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
@@ -24236,13 +24236,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
@@ -24280,24 +24280,24 @@
       <c r="C10" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -24389,22 +24389,22 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -24456,16 +24456,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
@@ -24528,7 +24528,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="103">
+      <c r="A46" s="94">
         <f>VLOOKUP("K-12 school enrollment",lookup_helper!$B:$D,3,FALSE)</f>
         <v>657</v>
       </c>
@@ -24609,16 +24609,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
       <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -24647,16 +24647,16 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="54"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -24723,7 +24723,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24753,16 +24753,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -24790,7 +24790,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24800,7 +24800,7 @@
     </row>
     <row r="39" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>233</v>
@@ -24825,7 +24825,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -24835,12 +24835,12 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24947,16 +24947,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="103" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
